--- a/Dados/risk_free_d.xlsx
+++ b/Dados/risk_free_d.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Datathon_2023\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E32DD8-9D54-4985-AC19-8C3CF836C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D14A6-36E7-4BE0-932D-E900219A6CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,17 @@
     <t>observation_date</t>
   </si>
   <si>
-    <t>r_free_dia</t>
+    <t>r_free_day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -91,7 +91,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:IV10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
